--- a/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
+++ b/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
-    <t xml:space="preserve">QUESTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSWER</t>
+    <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer</t>
   </si>
   <si>
     <t xml:space="preserve">Why do I need to worry about Cyber Security?</t>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
+++ b/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -28,6 +28,18 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
+    <t xml:space="preserve">Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, nice to hear you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, how can I help you?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Why do I need to worry about Cyber Security?</t>
   </si>
   <si>
@@ -374,6 +386,18 @@
   </si>
   <si>
     <t xml:space="preserve">Employees are given access to University-owned devices for work purposes. If you have a question about a non-work or otherwise unusual use for your University-owned device, consult your unit head or local support provider to discuss the potential risks to both University and personal information and whether the proposed use is acceptable.  For example, you may not use a tablet in a healthcare clinic to play games or listen to music between appointments.  As a general rule, you shouldn't install apps or enable functions on a University-owned or -operated device unless they're essential to the work-related tasks you're performing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye, have a good day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks, bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No problem, see you later, bye</t>
   </si>
 </sst>
 </file>
@@ -478,16 +502,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,7 +526,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -510,12 +534,12 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -523,23 +547,23 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -566,7 +590,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -582,7 +606,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -960,6 +984,38 @@
       </c>
       <c r="B59" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
+++ b/6_CYBERSECURITY_CHATBOT/data/security_faq.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -386,6 +386,153 @@
   </si>
   <si>
     <t xml:space="preserve">Employees are given access to University-owned devices for work purposes. If you have a question about a non-work or otherwise unusual use for your University-owned device, consult your unit head or local support provider to discuss the potential risks to both University and personal information and whether the proposed use is acceptable.  For example, you may not use a tablet in a healthcare clinic to play games or listen to music between appointments.  As a general rule, you shouldn't install apps or enable functions on a University-owned or -operated device unless they're essential to the work-related tasks you're performing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is cybersecurity? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybersecurity refers to the practice of protecting computers, servers, networks, and other systems from digital attacks and threats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a cyber attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cyber attack is an attempt by a hacker or other malicious actor to gain unauthorized access to a computer, network, or system, or to disrupt or damage it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a malware?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malware is a type of software designed to damage or disrupt computer systems. It can include viruses, worms, Trojans, and other types of harmful software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do hackers gain access to systems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackers can gain access to systems through a variety of methods, including exploiting vulnerabilities in software, using phishing attacks to trick users into revealing login credentials, and using malware to gain access to systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a phishing attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phishing attack is a type of cyber attack in which a hacker sends an email or other message that appears to be from a legitimate source, but is actually a scam designed to trick the recipient into revealing sensitive information or clicking on a malicious link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a virus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A virus is a type of malware that replicates itself and spreads from one computer to another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a Trojan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Trojan is a type of malware that disguises itself as legitimate software, but is actually designed to damage or disrupt computer systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a worm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A worm is a type of malware that spreads itself from one computer to another without requiring any action from the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a ransomware attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ransomware attack is a type of cyber attack in which a hacker demands payment in exchange for unlocking access to a computer or system that they have taken control of.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a firewall?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A firewall is a security system that controls incoming and outgoing network traffic based on predetermined security rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is two-factor authentication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-factor authentication is a security process that requires users to provide two forms of identification when logging in to a system, such as a password and a code sent to their phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a security breach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A security breach is an incident in which a hacker or other malicious actor gains unauthorized access to a system or network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a denial of service (DoS) attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A denial of service (DoS) attack is a type of cyber attack in which a hacker attempts to make a system or network unavailable to its intended users by overwhelming it with traffic or otherwise disrupting its operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a distributed denial of service (DDoS) attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distributed denial of service (DDoS) attack is a type of cyber attack in which a hacker uses multiple computers or devices to coordinate a DoS attack on a single system or network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a zero-day vulnerability?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zero-day vulnerability is a security flaw that is unknown to the vendor or developer of a software or system, and has not yet been patched or fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a patch?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A patch is a piece of software that is designed to fix vulnerabilities or bugs in a system or application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a spam email?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spam email is an unsolicited email, often sent in large quantities, that is typically intended to promote a product or service or to trick the recipient into revealing sensitive information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is cybersecurity important? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybersecurity is important because it helps protect individuals, organizations, and governments from the consequences of cyber attacks, which can include data breaches, financial loss, and reputational damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are common types of cyber attacks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common types of cyber attacks include malware, phishing, ransomware, denial of service (DoS), and SQL injection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is antivirus software?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antivirus software is a type of security software that detects and removes malware from your device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I protect my home network from cyber attacks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To protect your home network from cyber attacks, you should use a strong, unique password for your router, keep your router's software up to date, and enable security features such as firewalls and encryption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a data breach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data breach is a security incident in which sensitive, protected, or confidential data is accessed, used, or disclosed without authorization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a cybercrime?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybercrime refers to criminal activities that are committed using the internet or other forms of digital communication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a cyber attack vector?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cyber attack vector is a path or method that an attacker uses to gain access to a target system or network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zero-day vulnerability is a type of security flaw that is unknown to the vendor and can be exploited by attackers to gain access to a system or network.</t>
   </si>
   <si>
     <t xml:space="preserve">Bye</t>
@@ -472,9 +619,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -483,6 +634,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -502,23 +657,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A199" activeCellId="0" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="62.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -526,7 +681,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -534,7 +689,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -542,7 +697,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -550,23 +705,23 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -574,7 +729,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -582,7 +737,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -590,7 +745,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -598,7 +753,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -606,7 +761,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -614,7 +769,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -622,7 +777,7 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -630,7 +785,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -638,7 +793,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -646,7 +801,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -654,7 +809,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -662,7 +817,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -670,7 +825,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -678,7 +833,7 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -686,7 +841,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -694,7 +849,7 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -702,7 +857,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -710,7 +865,7 @@
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -718,7 +873,7 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -726,7 +881,7 @@
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -734,7 +889,7 @@
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -742,7 +897,7 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -750,7 +905,7 @@
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -758,7 +913,7 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -766,7 +921,7 @@
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -774,7 +929,7 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -782,7 +937,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -790,7 +945,7 @@
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -798,7 +953,7 @@
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -806,7 +961,7 @@
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -814,7 +969,7 @@
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -822,7 +977,7 @@
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -830,7 +985,7 @@
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -838,7 +993,7 @@
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -846,7 +1001,7 @@
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -854,7 +1009,7 @@
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -862,7 +1017,7 @@
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -870,7 +1025,7 @@
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -878,7 +1033,7 @@
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -886,7 +1041,7 @@
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -894,7 +1049,7 @@
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -902,7 +1057,7 @@
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -910,7 +1065,7 @@
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -918,7 +1073,7 @@
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -926,7 +1081,7 @@
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -934,7 +1089,7 @@
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -942,7 +1097,7 @@
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -950,7 +1105,7 @@
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -958,7 +1113,7 @@
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -966,7 +1121,7 @@
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -974,7 +1129,7 @@
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -982,7 +1137,7 @@
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -990,7 +1145,7 @@
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -998,24 +1153,224 @@
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="0" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
